--- a/data/trans_orig/cron_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.6583448010225587</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9626998383642332</v>
+        <v>0.962699838364233</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6986768507422439</v>
@@ -693,7 +693,7 @@
         <v>0.7372137792159617</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>1.052008536594182</v>
+        <v>1.052008536594181</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4253551165042167</v>
+        <v>0.428019570283163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5576277587604405</v>
+        <v>0.5592426938919164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5787497615071774</v>
+        <v>0.5752099925059027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8689719911870165</v>
+        <v>0.8540912881107563</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6127658894717373</v>
+        <v>0.624335263967448</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7511427163009506</v>
+        <v>0.7411239620456125</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7215423292946741</v>
+        <v>0.729021113636846</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.054625549150989</v>
+        <v>1.05396876993687</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5446606756331774</v>
+        <v>0.5375807749755261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6810304624593269</v>
+        <v>0.6853303051931161</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6696068960356593</v>
+        <v>0.6696062163752257</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9857690169918946</v>
+        <v>0.983702583506704</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5607155095433224</v>
+        <v>0.5666045731317346</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7385440580648743</v>
+        <v>0.7386617222133036</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7693075344920314</v>
+        <v>0.7534461134921824</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.081495448023261</v>
+        <v>1.069920595764836</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7881691375313176</v>
+        <v>0.7840827050086928</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9330324269592942</v>
+        <v>0.9403420293365843</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9424675792923535</v>
+        <v>0.9441840984902095</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.223312600836959</v>
+        <v>1.226107836030073</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6497924601029827</v>
+        <v>0.6492731563986089</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8048698667554229</v>
+        <v>0.8102666919448631</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7963431532050471</v>
+        <v>0.8047405757490868</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.12954846349927</v>
+        <v>1.128455969256987</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.479603110916472</v>
+        <v>0.4815963721967488</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5256632344211103</v>
+        <v>0.5178340790407522</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5488143653398937</v>
+        <v>0.5426903708670102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.778607482623689</v>
+        <v>0.779070301377587</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.685205569269669</v>
+        <v>0.6894105833102115</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.70842370255409</v>
+        <v>0.7048980576813562</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7075559704490435</v>
+        <v>0.7104301715172465</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8747670062650976</v>
+        <v>0.8754897475543392</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5968900153782722</v>
+        <v>0.6047737945736209</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6377820348903198</v>
+        <v>0.6356061049851141</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6485903200956642</v>
+        <v>0.6482773248328171</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8448162602554435</v>
+        <v>0.8477600486390706</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6076717656782816</v>
+        <v>0.6025637013977513</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6724313947997693</v>
+        <v>0.6748152442677718</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6778089712211326</v>
+        <v>0.6777797690954891</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9507876611545506</v>
+        <v>0.950840286105781</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8450895230435375</v>
+        <v>0.8462325081765614</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8743324150332404</v>
+        <v>0.8725226021835287</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8620639265889405</v>
+        <v>0.855695581151475</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.03152927536289</v>
+        <v>1.014353170192618</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7000981395766639</v>
+        <v>0.7060370622550327</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.746617465117858</v>
+        <v>0.743841367893036</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7437021502170718</v>
+        <v>0.754422448527529</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9550181280149326</v>
+        <v>0.9604004504673574</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.6139659849778294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9157844559708229</v>
+        <v>0.9157844559708227</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7286872264895421</v>
@@ -953,7 +953,7 @@
         <v>0.7193791870854344</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8551949195088728</v>
+        <v>0.8551949195088729</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.6010255858240855</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4058213716611909</v>
+        <v>0.4132783856573338</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4855764742761997</v>
+        <v>0.4876574765724303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5391806474569121</v>
+        <v>0.5350837839690182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8208831885632373</v>
+        <v>0.8250411410771847</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6460161287287828</v>
+        <v>0.6483480250845511</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.645838244054053</v>
+        <v>0.6449967814814153</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6364562513237928</v>
+        <v>0.6390785420458667</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7830428796876626</v>
+        <v>0.7741723124386654</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5493927395143977</v>
+        <v>0.5479815093001074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5936090674456356</v>
+        <v>0.5943841398332051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6077241997887357</v>
+        <v>0.6054254553824594</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8196961492779957</v>
+        <v>0.8242980443159262</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5497523480783416</v>
+        <v>0.5537337802208163</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6569252386381925</v>
+        <v>0.6503758526214419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7124415567876226</v>
+        <v>0.6974801459832529</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.032113434933818</v>
+        <v>1.035007206663253</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8242901624066714</v>
+        <v>0.8248500768939568</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8234709186775383</v>
+        <v>0.8193653609613605</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8222469409543607</v>
+        <v>0.8250156787280064</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9527136186373303</v>
+        <v>0.9404863738083614</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6560450440944664</v>
+        <v>0.6606934273346204</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7129521341325016</v>
+        <v>0.7121262140258092</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7275417764324779</v>
+        <v>0.7304041144570628</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9526415373417524</v>
+        <v>0.9563204345135493</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.595451534145398</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9017732369009623</v>
+        <v>0.9017732369009624</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6823066100517722</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4519044035978336</v>
+        <v>0.4569355169235723</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6043308544552012</v>
+        <v>0.6119189346488597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5329313768665352</v>
+        <v>0.5331086929546724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8174933023987271</v>
+        <v>0.8175959571148392</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6136025172111722</v>
+        <v>0.6204022993374286</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8080902016543342</v>
+        <v>0.8022593144008873</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6612696750897951</v>
+        <v>0.6585292064851455</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.008035360277378</v>
+        <v>1.008390934692607</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5565702073691915</v>
+        <v>0.5554298114246958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7312193820508587</v>
+        <v>0.7369762192794272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6165379339830749</v>
+        <v>0.6158090808929229</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9427707782389994</v>
+        <v>0.9411539844046581</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5817146205200749</v>
+        <v>0.5752045424442664</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7730005878681381</v>
+        <v>0.7678995249760546</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6594537606036884</v>
+        <v>0.6675307251339038</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9882167247758553</v>
+        <v>0.998096923452498</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7600793736310794</v>
+        <v>0.7624355967005789</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9765948960811329</v>
+        <v>0.9746099505252395</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8162866035306492</v>
+        <v>0.8031916571807933</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.168187777299009</v>
+        <v>1.171231352485117</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6492475727031818</v>
+        <v>0.6553505644968279</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8503115763037506</v>
+        <v>0.8499504438365514</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.715718208242818</v>
+        <v>0.7123604377580052</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.059408456063322</v>
+        <v>1.06038473316261</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.6162753106086095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9048399331896578</v>
+        <v>0.9048399331896579</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7181474320547336</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4766884949692131</v>
+        <v>0.4757212244851498</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5815597649253101</v>
+        <v>0.5833750472025485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5824306128811509</v>
+        <v>0.5805285975423201</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8540357121008401</v>
+        <v>0.8635513292632661</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6779141761518382</v>
+        <v>0.6805158011868064</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7699274764654565</v>
+        <v>0.7726672014735113</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.712501424224765</v>
+        <v>0.7177937783016389</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9628013652204522</v>
+        <v>0.9603236427676131</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5889729607274856</v>
+        <v>0.5892930811999064</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6885072337109551</v>
+        <v>0.6913652356621813</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6601236026201115</v>
+        <v>0.6611629038985655</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9268794966456391</v>
+        <v>0.9257414242376906</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5419051649612215</v>
+        <v>0.5415930929578023</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6629424536582748</v>
+        <v>0.6619820547648844</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6526007285279052</v>
+        <v>0.6545949275998003</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9510207733117884</v>
+        <v>0.9557409041595341</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7573346087346515</v>
+        <v>0.7559177989174038</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8545870146093113</v>
+        <v>0.8583252801803125</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.798567759832443</v>
+        <v>0.8010826122297763</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.045630272672399</v>
+        <v>1.04641562827124</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6411894307180539</v>
+        <v>0.6408974939160378</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7493006351482497</v>
+        <v>0.7517068885956999</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7161187246032839</v>
+        <v>0.7149320910762947</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9861909629418646</v>
+        <v>0.9884359869064571</v>
       </c>
     </row>
     <row r="19">
